--- a/Test GILTI Workbook.xlsx
+++ b/Test GILTI Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyshen/PycharmProjects/TRA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCFD58-62BE-6D41-B207-A8EE3F42B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580C5692-B0F0-CB4C-A3DE-A7981F409515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3220" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{4983C350-3FA9-9C41-AE46-1E8E0ED712E9}"/>
+    <workbookView xWindow="-3220" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{4983C350-3FA9-9C41-AE46-1E8E0ED712E9}"/>
     <workbookView xWindow="-3220" yWindow="-21600" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{0412223A-99D7-0246-949B-EE06C17D59BA}"/>
   </bookViews>
   <sheets>
@@ -1349,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36BAD44-FFD7-0B45-96D5-4FFAD716EC7A}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0119B7-87D7-8845-940F-373BF7C7DC09}">
   <dimension ref="A2:XFA64"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -7486,8 +7486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E35206D-F967-9C42-857F-629062F7A3FD}">
   <dimension ref="A1:I506"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="B367" sqref="B367"/>
